--- a/ACTWeeklyRoundUp/Partner Training Classes.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\SogetiACTEmailTemplates\ACTWeeklyRoundUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73BDBA04-A0FF-4431-B9AF-F1ADAE13C243}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D1B4233-9728-4F51-8B7B-B30176F052AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1738,16 +1738,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="79.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,7 +1822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>79</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>41</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>80</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>15</v>
       </c>
@@ -2260,7 +2262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -2290,7 +2292,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>15</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>79</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>20</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>31</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>24</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>34</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>66</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>9</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>66</v>
       </c>
@@ -3190,11 +3192,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="7">
         <v>43311</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -3214,7 +3216,7 @@
       <c r="A84" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="7">
         <v>43311</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -3230,11 +3232,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="7">
         <v>43311</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -3310,7 +3312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>80</v>
       </c>
@@ -3334,7 +3336,15 @@
   <autoFilter ref="A11:F89" xr:uid="{8A700F16-CB2B-4C52-B39F-B0555717E82B}">
     <filterColumn colId="1">
       <filters>
-        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="7" day="19" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="20" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="21" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="25" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="27" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="28" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="30" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="31" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState ref="A12:F86">

--- a/ACTWeeklyRoundUp/Partner Training Classes.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\SogetiACTEmailTemplates\ACTWeeklyRoundUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D1B4233-9728-4F51-8B7B-B30176F052AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15A7059A-CB28-4D28-AC47-F78880676317}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1738,8 +1738,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1902,18 +1902,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7">
-        <v>43329</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="11">
+        <v>43313</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>23</v>
@@ -1962,7 +1962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -2392,18 +2392,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B41" s="7">
-        <v>43318</v>
+        <v>43314</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>23</v>
@@ -2432,7 +2432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
@@ -2452,27 +2452,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="7">
-        <v>43332</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="11">
+        <v>43315</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2692,18 +2692,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="11">
+        <v>80</v>
+      </c>
+      <c r="B56" s="7">
         <v>43315</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>23</v>
@@ -2712,18 +2712,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="11">
-        <v>43332</v>
+      <c r="B57" s="7">
+        <v>43318</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>23</v>
@@ -2732,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>20</v>
       </c>
@@ -2837,18 +2837,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="7">
-        <v>43314</v>
+        <v>43319</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>23</v>
@@ -2857,38 +2857,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="7">
-        <v>43321</v>
+        <v>43319</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F65" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="7">
-        <v>43319</v>
+        <v>43321</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>23</v>
@@ -2897,18 +2897,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="7">
-        <v>43340</v>
+      <c r="B67" s="11">
+        <v>43325</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>23</v>
@@ -2917,18 +2917,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B68" s="7">
-        <v>43343</v>
+        <v>43329</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>23</v>
@@ -2957,27 +2957,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B70" s="7">
-        <v>43319</v>
+        <v>43332</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F70" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>31</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>24</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>34</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>66</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>64</v>
       </c>
@@ -3107,18 +3107,18 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B78" s="11">
-        <v>43313</v>
+        <v>43332</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>23</v>
@@ -3127,18 +3127,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="11">
-        <v>43325</v>
+      <c r="B79" s="7">
+        <v>43340</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>23</v>
@@ -3152,7 +3152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>66</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>24</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>24</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>35</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>79</v>
       </c>
@@ -3272,18 +3272,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B87" s="7">
-        <v>43315</v>
+        <v>43343</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>23</v>
@@ -3312,7 +3312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>80</v>
       </c>
@@ -3336,18 +3336,10 @@
   <autoFilter ref="A11:F89" xr:uid="{8A700F16-CB2B-4C52-B39F-B0555717E82B}">
     <filterColumn colId="1">
       <filters>
-        <dateGroupItem year="2018" month="7" day="19" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="20" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="21" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="23" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="25" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="27" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="28" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="30" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="31" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <sortState ref="A12:F86">
+    <sortState ref="A16:F87">
       <sortCondition ref="B11:B89"/>
     </sortState>
   </autoFilter>
@@ -3356,7 +3348,7 @@
     <hyperlink ref="A43" r:id="rId2" display="https://events.withgoogle.com/kubernetes-423672" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A14" r:id="rId3" display="https://www.google.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A29" r:id="rId4" display="https://events.withgoogle.com/fund-core-infra-423726" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://events.withgoogle.com/fund-core-infra-423727" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A68" r:id="rId5" display="https://events.withgoogle.com/fund-core-infra-423727" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A17" r:id="rId6" display="https://events.withgoogle.com/fund-core-infra-423728" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="A12" r:id="rId7" display="https://events.withgoogle.com/fund-core-infra-423729" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A19" r:id="rId8" display="https://events.withgoogle.com/fund-core-infra-423733" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
@@ -3379,10 +3371,10 @@
     <hyperlink ref="A37" r:id="rId25" display="https://events.withgoogle.com/gcp-core-infra-boulder-424053" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="A13" r:id="rId26" display="https://events.withgoogle.com/gcp-core-infra-sfo-424057" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="A26" r:id="rId27" display="https://events.withgoogle.com/funda-aws-424058" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A41" r:id="rId28" display="https://events.withgoogle.com/gcp-core-infra-la-424070" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A57" r:id="rId28" display="https://events.withgoogle.com/gcp-core-infra-la-424070" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="A38" r:id="rId29" display="https://events.withgoogle.com/gcp-core-infra-nyc-424071" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="A45" r:id="rId30" display="https://events.withgoogle.com/gcp-core-infra-toronto-424072" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A44" r:id="rId31" display="https://events.withgoogle.com/de-on-gcp-424073" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A70" r:id="rId31" display="https://events.withgoogle.com/de-on-gcp-424073" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="A73" r:id="rId32" display="https://events.withgoogle.com/big-data-ml-sydney-424102" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="A46" r:id="rId33" display="https://events.withgoogle.com/funda-424128" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="A47" r:id="rId34" display="https://events.withgoogle.com/big-data-mach-424129" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
@@ -3394,19 +3386,19 @@
     <hyperlink ref="A53" r:id="rId40" display="https://events.withgoogle.com/arch-infra-424165" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="A54" r:id="rId41" display="https://events.withgoogle.com/kubernetes-424198" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="A55" r:id="rId42" display="https://events.withgoogle.com/des-pro-424199" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A56" r:id="rId43" display="https://www.google.com/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A57" r:id="rId44" display="https://events.withgoogle.com/core-infra-sydney-424209" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://www.google.com/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A78" r:id="rId44" display="https://events.withgoogle.com/core-infra-sydney-424209" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="A83" r:id="rId45" display="https://events.withgoogle.com/core-infra-singapore-424240" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="A84" r:id="rId46" display="https://events.withgoogle.com/core-infra-atlanta-424241" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="A85" r:id="rId47" display="https://events.withgoogle.com/aws-austin-424242" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="A15" r:id="rId48" display="https://events.withgoogle.com/gcp-sales-acc-hk-423471" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A64" r:id="rId49" display="https://events.withgoogle.com/gcp-solution-playbooks-423555" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A65" r:id="rId50" display="https://events.withgoogle.com/gc-solution-playbooks-423559" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A66" r:id="rId51" display="https://events.withgoogle.com/gc-solution-playbooks-423562/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A67" r:id="rId52" display="https://events.withgoogle.com/gcp-sales-acc-seo-423563" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A68" r:id="rId53" display="https://events.withgoogle.com/gc-solutions-playbook-423577/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A41" r:id="rId49" display="https://events.withgoogle.com/gcp-solution-playbooks-423555" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A66" r:id="rId50" display="https://events.withgoogle.com/gc-solution-playbooks-423559" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A64" r:id="rId51" display="https://events.withgoogle.com/gc-solution-playbooks-423562/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A79" r:id="rId52" display="https://events.withgoogle.com/gcp-sales-acc-seo-423563" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A87" r:id="rId53" display="https://events.withgoogle.com/gc-solutions-playbook-423577/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="A69" r:id="rId54" display="https://events.withgoogle.com/gcp-sales-acc-tor-423599" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A70" r:id="rId55" display="https://www.google.com/" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A65" r:id="rId55" display="https://www.google.com/" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="A59" r:id="rId56" display="https://events.withgoogle.com/gcp-sol-sanfran-423734/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="A74" r:id="rId57" display="https://events.withgoogle.com/gcp-sol-sanfran-423737/" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="A82" r:id="rId58" display="https://events.withgoogle.com/gcp-sol-sanfran-423741/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
@@ -3414,14 +3406,14 @@
     <hyperlink ref="A75" r:id="rId60" display="https://events.withgoogle.com/gcp-sales-acc-sanfran-423744" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="A76" r:id="rId61" display="https://events.withgoogle.com/gcp-sol-play-milan-424017" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="A77" r:id="rId62" display="https://events.withgoogle.com/gcp-sol-play-milan-424017" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A78" r:id="rId63" display="https://events.withgoogle.com/gcp-sol-play-mumbai-424078" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A79" r:id="rId64" display="https://events.withgoogle.com/gcp-sales-acc-bogota-424125" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A16" r:id="rId63" display="https://events.withgoogle.com/gcp-sol-play-mumbai-424078" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId64" display="https://events.withgoogle.com/gcp-sales-acc-bogota-424125" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="A42" r:id="rId65" display="https://events.withgoogle.com/pso-cloudplan-423674" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="A58" r:id="rId66" display="https://events.withgoogle.com/how-to-deliver-pso-423675/" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="A18" r:id="rId67" display="https://events.withgoogle.com/423704-pso-cloud-plan-munich" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="A28" r:id="rId68" display="https://events.withgoogle.com/423709-discover-ml-munich" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="A86" r:id="rId69" display="https://events.withgoogle.com/cloud-plan-423828" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A87" r:id="rId70" display="https://events.withgoogle.com/discover-ml-423833" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A56" r:id="rId70" display="https://events.withgoogle.com/discover-ml-423833" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="A88" r:id="rId71" display="https://events.withgoogle.com/cloud-plan-424147" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="A89" r:id="rId72" display="https://events.withgoogle.com/cloudml-424149" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="A39" r:id="rId73" display="https://events.withgoogle.com/arch-bangalore-423811" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
